--- a/data/trans_dic/P34A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,68; 39,32</t>
+          <t>30,3; 39,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,27; 19,52</t>
+          <t>12,48; 19,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,21; 29,78</t>
+          <t>21,13; 29,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,06; 31,18</t>
+          <t>22,98; 31,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,87; 42,22</t>
+          <t>31,08; 42,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 26,6</t>
+          <t>17,01; 26,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 33,48</t>
+          <t>23,48; 33,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,99; 26,71</t>
+          <t>19,97; 26,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,29; 39,15</t>
+          <t>32,13; 38,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,27; 21,31</t>
+          <t>15,2; 21,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,39; 30,04</t>
+          <t>23,53; 29,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,66; 27,96</t>
+          <t>22,61; 27,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,3; 35,03</t>
+          <t>25,02; 34,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 21,98</t>
+          <t>14,3; 22,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,73; 30,89</t>
+          <t>21,46; 31,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,65; 29,85</t>
+          <t>21,74; 30,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,53; 47,8</t>
+          <t>37,92; 48,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,1; 31,03</t>
+          <t>20,76; 30,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 36,97</t>
+          <t>26,5; 36,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,52; 36,42</t>
+          <t>29,13; 36,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,66; 40,0</t>
+          <t>32,81; 39,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,31; 24,73</t>
+          <t>18,27; 24,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,76; 32,27</t>
+          <t>25,31; 32,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,7; 31,67</t>
+          <t>25,92; 31,64</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,89; 50,71</t>
+          <t>41,94; 51,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,86; 29,14</t>
+          <t>21,61; 28,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,75; 41,55</t>
+          <t>32,65; 41,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 38,97</t>
+          <t>9,08; 39,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,29; 53,89</t>
+          <t>39,04; 54,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,37; 41,22</t>
+          <t>29,0; 40,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,44; 50,82</t>
+          <t>34,16; 50,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,8; 46,41</t>
+          <t>34,64; 46,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,74; 50,45</t>
+          <t>42,62; 50,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,36; 31,45</t>
+          <t>25,54; 31,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34,05; 41,39</t>
+          <t>34,45; 41,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 39,73</t>
+          <t>11,8; 39,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,14; 49,85</t>
+          <t>43,92; 49,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,77; 27,92</t>
+          <t>22,87; 28,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,79; 41,83</t>
+          <t>35,72; 41,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,17; 41,54</t>
+          <t>35,35; 41,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,83; 51,17</t>
+          <t>43,78; 51,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,23; 34,18</t>
+          <t>27,27; 33,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,4; 46,31</t>
+          <t>39,43; 46,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 40,64</t>
+          <t>17,01; 40,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,87; 49,47</t>
+          <t>45,13; 49,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 29,79</t>
+          <t>25,55; 29,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,07; 42,65</t>
+          <t>38,02; 42,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,09; 39,74</t>
+          <t>23,69; 39,68</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,99; 55,82</t>
+          <t>45,29; 56,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,53; 32,45</t>
+          <t>23,68; 32,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,69; 44,58</t>
+          <t>36,69; 45,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,16; 48,18</t>
+          <t>38,29; 47,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,43; 58,61</t>
+          <t>49,46; 58,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,08; 40,38</t>
+          <t>33,3; 40,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,3; 51,88</t>
+          <t>44,0; 51,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,81; 52,23</t>
+          <t>34,06; 51,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,25; 56,39</t>
+          <t>49,3; 56,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,85; 36,21</t>
+          <t>30,44; 35,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41,9; 47,44</t>
+          <t>41,86; 47,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,63; 49,0</t>
+          <t>37,5; 49,02</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,79; 23,82</t>
+          <t>14,23; 23,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 16,18</t>
+          <t>7,96; 15,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,51; 22,65</t>
+          <t>13,15; 22,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,07; 24,45</t>
+          <t>7,08; 24,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,19; 47,8</t>
+          <t>42,28; 48,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,72; 33,09</t>
+          <t>27,67; 33,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,44; 50,84</t>
+          <t>44,64; 50,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,66; 52,5</t>
+          <t>45,96; 52,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,51; 42,39</t>
+          <t>37,49; 42,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,39; 29,23</t>
+          <t>24,39; 29,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38,62; 44,09</t>
+          <t>38,62; 43,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,23; 44,12</t>
+          <t>37,18; 43,94</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,21; 42,83</t>
+          <t>39,21; 42,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,09; 23,99</t>
+          <t>20,85; 23,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,13; 35,5</t>
+          <t>32,07; 35,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,22; 33,98</t>
+          <t>23,76; 33,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,39; 47,8</t>
+          <t>44,38; 47,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,37; 32,6</t>
+          <t>29,44; 32,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,1; 44,52</t>
+          <t>40,88; 44,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,81; 41,37</t>
+          <t>30,9; 41,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,31; 44,82</t>
+          <t>42,49; 44,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,65; 27,83</t>
+          <t>25,69; 27,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,16; 39,55</t>
+          <t>37,26; 39,65</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,45; 37,02</t>
+          <t>29,78; 37,06</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no realiza actividad física en su tiempo libre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>163394</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>68415</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>108064</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>136174</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>110688</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>67472</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>97777</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>103807</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>274083</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>135886</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>205841</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>239981</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>142302; 183892</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>54552; 86599</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>90669; 126855</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>115533; 156087</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>93208; 126405</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>53494; 83017</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>81494; 114739</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>89372; 119433</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>247259; 299604</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>114216; 158843</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>182625; 231025</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>214854; 263545</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>108328</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74927</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>98544</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>115531</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>155385</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>86352</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>118718</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>125609</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>263713</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>161279</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>217262</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>241140</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>90297; 125853</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59890; 92912</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80962; 117160</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>98296; 135700</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>137834; 175299</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>70170; 104355</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>98661; 137052</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>111458; 141164</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>237688; 289610</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>138282; 184862</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>189679; 242738</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>216343; 264089</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>249248</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>159516</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>192110</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>158681</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>76783</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>91180</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>69452</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>67619</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>326031</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>250696</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>261562</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>226300</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>225524; 274612</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>135854; 180706</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>170413; 215925</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>60592; 261856</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>64289; 89321</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>75436; 106099</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>56755; 83072</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57768; 78117</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>299356; 353887</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>226962; 281455</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>237020; 288422</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>98423; 329791</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>572417</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>292700</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>443768</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>395419</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>334765</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>235991</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>352580</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>306863</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>907182</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>528692</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>796349</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>702282</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>534358; 605519</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>264837; 326681</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>410669; 476560</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>364522; 428663</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>309441; 361201</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>209094; 259188</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>325611; 382078</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>166264; 395701</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>868076; 951391</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>491813; 571594</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>751111; 839328</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>475889; 797087</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>174348</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>143039</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>253482</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>203725</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>299880</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>280361</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>354260</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>378699</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>474228</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>423400</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>607742</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>582423</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>155273; 192743</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>120886; 164241</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>227743; 280765</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>181109; 226536</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>274544; 324361</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>253578; 305373</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>324836; 382271</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>285123; 433300</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>442727; 505884</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>387289; 455184</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>568876; 645757</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>491240; 642255</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>56464</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>31132</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>50844</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32184</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>552487</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>336455</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>514944</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>373544</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>608951</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>367587</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>565788</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>405728</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>42320; 69342</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>21247; 42572</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>37748; 64398</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17022; 59302</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>519083; 589340</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>306659; 370109</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>483036; 547320</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>348638; 398938</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>571732; 647868</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>335445; 401026</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>528807; 601896</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>371475; 438990</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1099</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1472</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2759</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1739</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3261</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1324199</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>769729</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1146812</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1041714</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1529989</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1097812</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1507731</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1356142</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2854188</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1867540</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2654544</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2397856</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1264721; 1378501</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>713231; 818951</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1085640; 1194549</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>800039; 1141227</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1472384; 1591396</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1044707; 1153673</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1443695; 1569061</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1103162; 1476421</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2779962; 2937072</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1790230; 1943122</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2577641; 2742784</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2065499; 2570836</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P34A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
